--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>59.39035423516566</v>
+        <v>3.814928429370777</v>
       </c>
       <c r="R2">
-        <v>534.5131881164909</v>
+        <v>34.33435586433699</v>
       </c>
       <c r="S2">
-        <v>0.001495793888247391</v>
+        <v>0.0001081532134794226</v>
       </c>
       <c r="T2">
-        <v>0.001495793888247391</v>
+        <v>0.0001081532134794226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>455.5285982666153</v>
+        <v>360.4147977410892</v>
       </c>
       <c r="R3">
-        <v>4099.757384399538</v>
+        <v>3243.733179669802</v>
       </c>
       <c r="S3">
-        <v>0.01147285450615571</v>
+        <v>0.01021775880803724</v>
       </c>
       <c r="T3">
-        <v>0.01147285450615571</v>
+        <v>0.01021775880803724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>75.74128908100732</v>
+        <v>57.74893180897678</v>
       </c>
       <c r="R4">
-        <v>681.6716017290659</v>
+        <v>519.740386280791</v>
       </c>
       <c r="S4">
-        <v>0.001907605346934728</v>
+        <v>0.001637182103354698</v>
       </c>
       <c r="T4">
-        <v>0.001907605346934728</v>
+        <v>0.001637182103354698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>279.1655646876103</v>
+        <v>162.7726026075631</v>
       </c>
       <c r="R5">
-        <v>2512.490082188493</v>
+        <v>1464.953423468068</v>
       </c>
       <c r="S5">
-        <v>0.007031009510659039</v>
+        <v>0.004614602964208324</v>
       </c>
       <c r="T5">
-        <v>0.00703100951065904</v>
+        <v>0.004614602964208323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>2195.623662389746</v>
+        <v>178.2548746944995</v>
       </c>
       <c r="R6">
-        <v>19760.61296150771</v>
+        <v>1604.293872250496</v>
       </c>
       <c r="S6">
-        <v>0.05529854969528578</v>
+        <v>0.005053525347462871</v>
       </c>
       <c r="T6">
-        <v>0.05529854969528578</v>
+        <v>0.00505352534746287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>16840.60285764725</v>
@@ -883,10 +883,10 @@
         <v>151565.4257188252</v>
       </c>
       <c r="S7">
-        <v>0.4241441418100684</v>
+        <v>0.4774310579361795</v>
       </c>
       <c r="T7">
-        <v>0.4241441418100684</v>
+        <v>0.4774310579361793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>2800.10733506779</v>
+        <v>2698.354318811748</v>
       </c>
       <c r="R8">
-        <v>25200.96601561011</v>
+        <v>24285.18886930573</v>
       </c>
       <c r="S8">
-        <v>0.0705229576783885</v>
+        <v>0.07649833963823627</v>
       </c>
       <c r="T8">
-        <v>0.07052295767838851</v>
+        <v>0.07649833963823627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>10320.57355855242</v>
+        <v>7605.649861770638</v>
       </c>
       <c r="R9">
-        <v>92885.16202697177</v>
+        <v>68450.84875593575</v>
       </c>
       <c r="S9">
-        <v>0.259931954454477</v>
+        <v>0.2156201586422669</v>
       </c>
       <c r="T9">
-        <v>0.259931954454477</v>
+        <v>0.2156201586422669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>417.9064451653452</v>
+        <v>45.55745566047833</v>
       </c>
       <c r="R10">
-        <v>3761.158006488106</v>
+        <v>410.017100944305</v>
       </c>
       <c r="S10">
-        <v>0.01052531028965285</v>
+        <v>0.001291553778491126</v>
       </c>
       <c r="T10">
-        <v>0.01052531028965285</v>
+        <v>0.001291553778491126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>3205.374671094902</v>
+        <v>4304.033868907504</v>
       </c>
       <c r="R11">
-        <v>28848.37203985411</v>
+        <v>38736.30482016753</v>
       </c>
       <c r="S11">
-        <v>0.08072994182829479</v>
+        <v>0.1220193517295935</v>
       </c>
       <c r="T11">
-        <v>0.08072994182829478</v>
+        <v>0.1220193517295935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>532.961509991173</v>
+        <v>689.6313912660684</v>
       </c>
       <c r="R12">
-        <v>4796.653589920556</v>
+        <v>6206.682521394616</v>
       </c>
       <c r="S12">
-        <v>0.01342306473134094</v>
+        <v>0.01955104858782692</v>
       </c>
       <c r="T12">
-        <v>0.01342306473134094</v>
+        <v>0.01955104858782693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>1964.377721830404</v>
+        <v>1943.812515313113</v>
       </c>
       <c r="R13">
-        <v>17679.39949647364</v>
+        <v>17494.31263781802</v>
       </c>
       <c r="S13">
-        <v>0.04947443449972641</v>
+        <v>0.05510708099111239</v>
       </c>
       <c r="T13">
-        <v>0.04947443449972641</v>
+        <v>0.05510708099111239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>38.06874539664155</v>
+        <v>2.496889875829555</v>
       </c>
       <c r="R14">
-        <v>342.6187085697739</v>
+        <v>22.472008882466</v>
       </c>
       <c r="S14">
-        <v>0.0009587920030257348</v>
+        <v>7.078682307540529E-05</v>
       </c>
       <c r="T14">
-        <v>0.0009587920030257349</v>
+        <v>7.078682307540527E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>291.9902137581925</v>
+        <v>235.8933008154263</v>
       </c>
       <c r="R15">
-        <v>2627.911923823732</v>
+        <v>2123.039707338836</v>
       </c>
       <c r="S15">
-        <v>0.007354008622985193</v>
+        <v>0.006687574614778403</v>
       </c>
       <c r="T15">
-        <v>0.007354008622985192</v>
+        <v>0.006687574614778403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>48.54956477648043</v>
+        <v>37.79696679593756</v>
       </c>
       <c r="R16">
-        <v>436.9460829883238</v>
+        <v>340.172701163438</v>
       </c>
       <c r="S16">
-        <v>0.001222759877507702</v>
+        <v>0.001071543934424459</v>
       </c>
       <c r="T16">
-        <v>0.001222759877507703</v>
+        <v>0.001071543934424459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>178.9429098792891</v>
+        <v>106.5354884207582</v>
       </c>
       <c r="R17">
-        <v>1610.486188913602</v>
+        <v>958.819395786824</v>
       </c>
       <c r="S17">
-        <v>0.004506821257249867</v>
+        <v>0.003020280887472704</v>
       </c>
       <c r="T17">
-        <v>0.004506821257249867</v>
+        <v>0.003020280887472704</v>
       </c>
     </row>
   </sheetData>
